--- a/data/data_overview.xlsx
+++ b/data/data_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xy0264\Documents\Promotion\Berechnungen\Sonstiges\DS_IR_ML\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE43967-9A37-4BD3-B254-D04D14DA7C02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D636B7AC-ED77-44BD-8704-053AB9E02E70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{C3E57058-ECF2-4C3F-9786-25736142D1BF}"/>
   </bookViews>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20516BF6-13AF-4002-91B2-F6C609739D5F}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
